--- a/_Feedback/Signs_Feedback.xlsx
+++ b/_Feedback/Signs_Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -229,13 +229,211 @@
   </si>
   <si>
     <t>Tutorial: Control-Buttons jeweils einblenden</t>
+  </si>
+  <si>
+    <t>Grund fürs Sterben</t>
+  </si>
+  <si>
+    <t>Guard greift nach Puppe</t>
+  </si>
+  <si>
+    <t>Bild wird kreisförmig ausgeblendet</t>
+  </si>
+  <si>
+    <t>Controls nicht erklärt</t>
+  </si>
+  <si>
+    <t>Buttons im Spiel einblenden</t>
+  </si>
+  <si>
+    <t>Untermenü für Controls</t>
+  </si>
+  <si>
+    <t>[Y] für Clairvoyance + [A] für Springen schwierieg einzublenden</t>
+  </si>
+  <si>
+    <t>Farbige Outlines</t>
+  </si>
+  <si>
+    <t>1 Farbe für Schubladen; 1 Farbe für Fetisch; 1 Farbe für Guard, Control Item &amp; Tür (inkl. 2 Farbvarianten)</t>
+  </si>
+  <si>
+    <t>QTE: Steuerung/Was muss getan werden</t>
+  </si>
+  <si>
+    <t>X in der Mitte einfärben (Blau) und pulsieren lassen</t>
+  </si>
+  <si>
+    <t>Besserer Kontrast durch Outlines/"Rimlight"</t>
+  </si>
+  <si>
+    <t>QTE: Bezug zum Guard</t>
+  </si>
+  <si>
+    <t>QTE: Bessere Darstellung</t>
+  </si>
+  <si>
+    <t>(Kurzes einblenden des Controller Buttons)</t>
+  </si>
+  <si>
+    <t>Controller vibriert stärker je näher man Ende kommt</t>
+  </si>
+  <si>
+    <t>Posession endet, wenn man anderem Guard zu nahe kommt</t>
+  </si>
+  <si>
+    <t>Voiceover: "Oy" / "Back to work!"</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Kamerafahrt</t>
+  </si>
+  <si>
+    <t>Kamera blendet zu Wachmann</t>
+  </si>
+  <si>
+    <t>Animation: Guard krümmt sich, hält sich Kopf</t>
+  </si>
+  <si>
+    <t>Game Over / Tod</t>
+  </si>
+  <si>
+    <t>Wechsel zwischen Masken / Anzahl Masken</t>
+  </si>
+  <si>
+    <t>"Minimap" zeigt den Raum, Position der Masken und aktuelle Maske</t>
+  </si>
+  <si>
+    <t>Ziel des Levels</t>
+  </si>
+  <si>
+    <t>Ausgang im Labor bekommt "Exit Schild"</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Tür bekommt Outlines während Clairvoyance in Farbe des Guards; während man in Interaktions-Range ist</t>
+  </si>
+  <si>
+    <t>Verbindung zwischen Control Item und Guard</t>
+  </si>
+  <si>
+    <t>Outfit des Guards passt zum Control Item</t>
+  </si>
+  <si>
+    <t>gleichfarbige Outlines bei Clairvoyance</t>
+  </si>
+  <si>
+    <t>Buttons für Wechsel und Verlassen einblenden</t>
+  </si>
+  <si>
+    <t>Kamerafahrt zum Fetisch, nachdem Control Item aufgesammelt wurde</t>
+  </si>
+  <si>
+    <t>Icon einblenden</t>
+  </si>
+  <si>
+    <t>Control Item aufgehoben</t>
+  </si>
+  <si>
+    <t>Control Item aufheben</t>
+  </si>
+  <si>
+    <t>Outlines hervorheben wenn in Interaktions-Range</t>
+  </si>
+  <si>
+    <t>Animation: Aufheben</t>
+  </si>
+  <si>
+    <t>Interaktion mit Fetisch</t>
+  </si>
+  <si>
+    <t>VFX: Fetisch "flammt auf" (VFX verstärken")</t>
+  </si>
+  <si>
+    <t>VFX</t>
+  </si>
+  <si>
+    <t>Guard sieht Puppe</t>
+  </si>
+  <si>
+    <t>Sound: "Huh?"</t>
+  </si>
+  <si>
+    <t>Sichtbereich des Guards</t>
+  </si>
+  <si>
+    <t>Ende des Sichtbereichs wird durch Linie hervorgehoben</t>
+  </si>
+  <si>
+    <t>Erklären, dass der Guard die Tür öffnen kann</t>
+  </si>
+  <si>
+    <t>Tür als Interaktives Objekt behandeln</t>
+  </si>
+  <si>
+    <t>Zeichnung in buch</t>
+  </si>
+  <si>
+    <t>Cut-Scene -&gt; Wache durch die Tür reinkommen lassen (Büro)?</t>
+  </si>
+  <si>
+    <t>Clairvoyance Aktivierung</t>
+  </si>
+  <si>
+    <t>Button im Tutorial beim ersten Fetisch einblenden</t>
+  </si>
+  <si>
+    <t>Kamerafahrt zur Maske</t>
+  </si>
+  <si>
+    <t>Entweder Icon oder jeweiliges control item</t>
+  </si>
+  <si>
+    <t>Guard verfolgt Puppe</t>
+  </si>
+  <si>
+    <t>Guard bricht Verfolgung ab</t>
+  </si>
+  <si>
+    <t>Sound: Bongo-Trommeln</t>
+  </si>
+  <si>
+    <t>Voiceover: "Hmmmm"</t>
+  </si>
+  <si>
+    <t>Sound bricht ab</t>
+  </si>
+  <si>
+    <t>Funktion der Masken / Clairvoyance erklären</t>
+  </si>
+  <si>
+    <t>Zeichnung</t>
+  </si>
+  <si>
+    <t>Bezug Fetisch zu Guard</t>
+  </si>
+  <si>
+    <t>Kamerafahrt zu Guard, bei Interaktion mit Fetisch ohne Control Item</t>
+  </si>
+  <si>
+    <t>Animation: Guard schaut zu Puppe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,24 +463,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -323,6 +538,63 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -342,7 +614,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -350,32 +622,69 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="7" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
-    <cellStyle name="20 % - Akzent2" xfId="4" builtinId="34"/>
-    <cellStyle name="20 % - Akzent5" xfId="6" builtinId="46"/>
-    <cellStyle name="20 % - Akzent6" xfId="8" builtinId="50"/>
-    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Akzent2" xfId="3" builtinId="33"/>
-    <cellStyle name="Akzent5" xfId="5" builtinId="45"/>
-    <cellStyle name="Akzent6" xfId="7" builtinId="49"/>
+  <cellStyles count="10">
+    <cellStyle name="20 % - Akzent2" xfId="2" builtinId="34"/>
+    <cellStyle name="20 % - Akzent5" xfId="4" builtinId="46"/>
+    <cellStyle name="20 % - Akzent6" xfId="6" builtinId="50"/>
+    <cellStyle name="Akzent2" xfId="1" builtinId="33"/>
+    <cellStyle name="Akzent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Akzent6" xfId="5" builtinId="49"/>
+    <cellStyle name="Gut" xfId="7" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28"/>
+    <cellStyle name="Schlecht" xfId="8" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,40 +984,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="45.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -716,314 +1025,295 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="28">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="27">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>36</v>
+      <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>22</v>
+      <c r="B9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="28">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3">
+        <v>116</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="27">
         <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="9">
-        <v>4</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>41</v>
+      <c r="B17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>54</v>
+      <c r="B18" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>57</v>
+        <v>130</v>
+      </c>
+      <c r="E18" s="27">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,90 +1321,104 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>64</v>
+      <c r="B21" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7">
+        <v>132</v>
+      </c>
+      <c r="E21" s="28">
         <v>3</v>
       </c>
-      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4"/>
+      <c r="B22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A23" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1124,12 +1428,455 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="13">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12">
+        <v>3</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
